--- a/data/evaluation/evaluation_North_Winter_Radish.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Radish.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1806.536796536797</v>
+        <v>1856.536796536797</v>
       </c>
       <c r="C3" t="n">
-        <v>5469146.820243249</v>
+        <v>5952146.820243249</v>
       </c>
       <c r="D3" t="n">
-        <v>2338.620708931495</v>
+        <v>2439.702199089727</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2527157550630923</v>
+        <v>-0.3633475829481887</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1928.571357031419</v>
+        <v>1932.106547477369</v>
       </c>
       <c r="C4" t="n">
-        <v>6632140.897571384</v>
+        <v>6645227.877252057</v>
       </c>
       <c r="D4" t="n">
-        <v>2575.294332221345</v>
+        <v>2577.833950674879</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.519101180724278</v>
+        <v>-0.522098771787566</v>
       </c>
     </row>
     <row r="5">
